--- a/data/processed/state_overviews/montana_overview.xlsx
+++ b/data/processed/state_overviews/montana_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>667</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Beaverhead County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>6</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Big Horn County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>7</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Blaine County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Carbon County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>12</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Carter County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Cascade County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>41</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Chouteau County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Custer County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Daniels County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Dawson County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Deer Lodge County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>6</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Fallon County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Fergus County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Flathead County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>54</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Gallatin County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>90</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Glacier County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Hill County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>11</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>4</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>14</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Lewis and Clark County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>58</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Liberty County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>15</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>6</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>McCone County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Meagher County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Mineral County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Missoula County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>102</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Musselshell County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Park County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>21</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Petroleum County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Phillips County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>5</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Pondera County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>3</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Powell County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>5</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Ravalli County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>17</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Richland County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>9</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Roosevelt County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>3</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Rosebud County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>4</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Sanders County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>9</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Sheridan County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Silver Bow County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>24</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Stillwater County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>3</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Toole County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Valley County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>6</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Wheatland County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Yellowstone County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>81</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,27 +1906,29 @@
           <t>Sweet Grass County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1938,29 @@
           <t>Broadwater County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>0</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1874,27 +1970,29 @@
           <t>Granite County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>0</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1904,27 +2002,29 @@
           <t>Wibaux County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>0</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1934,27 +2034,29 @@
           <t>Judith Basin County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1964,27 +2066,29 @@
           <t>Powder River County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1994,27 +2098,29 @@
           <t>Treasure County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2024,27 +2130,61 @@
           <t>Prairie County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>0</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$680,827,015</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.74%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-10.06%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>63.72%</t>
         </is>
       </c>
     </row>
@@ -2099,8 +2239,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>358</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2129,8 +2271,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>309</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2159,8 +2303,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>667</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2234,8 +2380,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>236</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2264,8 +2412,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>189</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2294,8 +2444,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>112</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2324,8 +2476,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>42</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2354,8 +2508,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>67</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2384,8 +2540,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>21</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2414,8 +2572,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>667</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2489,8 +2649,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>45</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2519,8 +2681,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>43</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2549,8 +2713,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>66</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2579,8 +2745,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>63</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2609,8 +2777,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>28</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2639,8 +2809,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>208</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2669,8 +2841,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2699,8 +2873,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>65</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2729,8 +2905,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2759,8 +2937,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>135</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2789,8 +2969,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2819,8 +3001,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>667</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/montana_overview.xlsx
+++ b/data/processed/state_overviews/montana_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,827 +431,827 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beaverhead County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$981,030</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.55%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.93%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Big Horn County</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$14,593,247</t>
+          <t>$680,827,015</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.69%</t>
+          <t>9.74%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.09%</t>
+          <t>-10.06%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>63.72%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Blaine County</t>
+          <t>Beaverhead County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$9,452,848</t>
+          <t>$981,030</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-14.39%</t>
+          <t>6.55%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-31.32%</t>
+          <t>-11.93%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carbon County</t>
+          <t>Big Horn County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,587,118</t>
+          <t>$14,593,247</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>21.69%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.02%</t>
+          <t>-8.09%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carter County</t>
+          <t>Blaine County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,520,400</t>
+          <t>$9,452,848</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.22%</t>
+          <t>-14.39%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>-31.32%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cascade County</t>
+          <t>Carbon County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$63,796,668</t>
+          <t>$1,587,118</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-18.64%</t>
+          <t>-1.02%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70.73%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chouteau County</t>
+          <t>Carter County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$19,239,235</t>
+          <t>$1,520,400</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>29.22%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.30%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Custer County</t>
+          <t>Cascade County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$4,661,576</t>
+          <t>$63,796,668</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-33.09%</t>
+          <t>-18.64%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>70.73%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daniels County</t>
+          <t>Chouteau County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$12,283</t>
+          <t>$19,239,235</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>1.30%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dawson County</t>
+          <t>Custer County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$7,253,857</t>
+          <t>$4,661,576</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-91.48%</t>
+          <t>-33.09%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Deer Lodge County</t>
+          <t>Daniels County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$17,289,903</t>
+          <t>$12,283</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.15%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1.68%</t>
+          <t>2.34%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fallon County</t>
+          <t>Dawson County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$250,673</t>
+          <t>$7,253,857</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18.45%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17.30%</t>
+          <t>-91.48%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fergus County</t>
+          <t>Deer Lodge County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$4,944,691</t>
+          <t>$17,289,903</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>12.15%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-32.78%</t>
+          <t>-1.68%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Flathead County</t>
+          <t>Fallon County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$34,381,964</t>
+          <t>$250,673</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16.22%</t>
+          <t>18.45%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gallatin County</t>
+          <t>Fergus County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$39,561,443</t>
+          <t>$4,944,691</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.87%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-4.59%</t>
+          <t>-32.78%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Glacier County</t>
+          <t>Flathead County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$20,508,151</t>
+          <t>$34,381,964</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26.24%</t>
+          <t>16.22%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-36.00%</t>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>44.44%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hill County</t>
+          <t>Gallatin County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$15,890,218</t>
+          <t>$39,561,443</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>13.87%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-45.40%</t>
+          <t>-4.59%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Glacier County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,528,358</t>
+          <t>$20,508,151</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.62%</t>
+          <t>26.24%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-36.06%</t>
+          <t>-36.00%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Hill County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$41,411,337</t>
+          <t>$15,890,218</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25.76%</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.58%</t>
+          <t>-45.40%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lewis and Clark County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$80,734,990</t>
+          <t>$1,528,358</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>18.62%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-15.16%</t>
+          <t>-36.06%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68.97%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Liberty County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$111,499</t>
+          <t>$41,411,337</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-2.86%</t>
+          <t>25.76%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-32.66%</t>
+          <t>10.58%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Lewis and Clark County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$14,545,482</t>
+          <t>$80,734,990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-36.43%</t>
+          <t>-15.16%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>68.97%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Liberty County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$830,801</t>
+          <t>$111,499</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16.96%</t>
+          <t>-2.86%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.83%</t>
+          <t>-32.66%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>McCone County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$455,802</t>
+          <t>$14,545,482</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-7.88%</t>
+          <t>8.27%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-18.35%</t>
+          <t>-36.43%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Meagher County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$44,149</t>
+          <t>$830,801</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-1.81%</t>
+          <t>16.96%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-6.01%</t>
+          <t>2.83%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mineral County</t>
+          <t>McCone County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1273,125 +1273,125 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$682,416</t>
+          <t>$455,802</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>-7.88%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>-18.35%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Missoula County</t>
+          <t>Meagher County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$100,403,064</t>
+          <t>$44,149</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>-1.81%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-8.36%</t>
+          <t>-6.01%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Musselshell County</t>
+          <t>Mineral County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$7,378,198</t>
+          <t>$682,416</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23.06%</t>
+          <t>7.87%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-27.24%</t>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Park County</t>
+          <t>Missoula County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$8,571,173</t>
+          <t>$100,403,064</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-8.81%</t>
+          <t>-8.36%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>52.38%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Petroleum County</t>
+          <t>Musselshell County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1401,93 +1401,93 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$3,181,916</t>
+          <t>$7,378,198</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>81.94%</t>
+          <t>23.06%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>45.20%</t>
+          <t>-27.24%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phillips County</t>
+          <t>Park County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$2,294,750</t>
+          <t>$8,571,173</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-4.73%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-18.78%</t>
+          <t>-8.81%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>52.38%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pondera County</t>
+          <t>Petroleum County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$1,962,211</t>
+          <t>$3,181,916</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-3.79%</t>
+          <t>81.94%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-84.63%</t>
+          <t>45.20%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Powell County</t>
+          <t>Phillips County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$2,145,271</t>
+          <t>$2,294,750</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6.30%</t>
+          <t>-4.73%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-31.32%</t>
+          <t>-18.78%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1519,327 +1519,327 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ravalli County</t>
+          <t>Pondera County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$13,789,091</t>
+          <t>$1,962,211</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16.61%</t>
+          <t>-3.79%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-20.21%</t>
+          <t>-84.63%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>76.47%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Richland County</t>
+          <t>Powell County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$8,752,930</t>
+          <t>$2,145,271</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-2.53%</t>
+          <t>6.30%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-18.19%</t>
+          <t>-31.32%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Roosevelt County</t>
+          <t>Ravalli County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$2,488,805</t>
+          <t>$13,789,091</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11.48%</t>
+          <t>16.61%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-3.80%</t>
+          <t>-20.21%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>76.47%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rosebud County</t>
+          <t>Richland County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,789,510</t>
+          <t>$8,752,930</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.45%</t>
+          <t>-2.53%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-12.98%</t>
+          <t>-18.19%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sanders County</t>
+          <t>Roosevelt County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$10,612,693</t>
+          <t>$2,488,805</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17.34%</t>
+          <t>11.48%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-3.38%</t>
+          <t>-3.80%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sheridan County</t>
+          <t>Rosebud County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$380,351</t>
+          <t>$1,789,510</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-4.06%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-6.42%</t>
+          <t>-12.98%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Silver Bow County</t>
+          <t>Sanders County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$12,232,760</t>
+          <t>$10,612,693</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6.90%</t>
+          <t>17.34%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-28.32%</t>
+          <t>-3.38%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>70.83%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stillwater County</t>
+          <t>Sheridan County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$992,459</t>
+          <t>$380,351</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13.71%</t>
+          <t>-4.06%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-30.28%</t>
+          <t>-6.42%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Toole County</t>
+          <t>Silver Bow County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$2,569,372</t>
+          <t>$12,232,760</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>31.63%</t>
+          <t>6.90%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6.39%</t>
+          <t>-28.32%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>70.83%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Valley County</t>
+          <t>Stillwater County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,684,688</t>
+          <t>$992,459</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.85%</t>
+          <t>13.71%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-11.82%</t>
+          <t>-30.28%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Wheatland County</t>
+          <t>Toole County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1849,342 +1849,118 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$3,316,171</t>
+          <t>$2,569,372</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19.53%</t>
+          <t>31.63%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-11.55%</t>
+          <t>6.39%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Yellowstone County</t>
+          <t>Valley County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$100,011,463</t>
+          <t>$1,684,688</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.23%</t>
+          <t>1.85%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-6.00%</t>
+          <t>-11.82%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>64.20%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sweet Grass County</t>
+          <t>Wheatland County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,316,171</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>19.53%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-11.55%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Broadwater County</t>
+          <t>Yellowstone County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$100,011,463</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.23%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-6.00%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Granite County</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Wibaux County</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Judith Basin County</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Powder River County</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Treasure County</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Prairie County</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>667</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>$680,827,015</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>9.74%</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>63.72%</t>
+          <t>64.20%</t>
         </is>
       </c>
     </row>
@@ -2195,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2204,128 +1980,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$309,375,406</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.16%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-7.76%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60.06%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$371,451,609</t>
+          <t>$680,827,015</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>9.74%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-12.51%</t>
+          <t>-10.06%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.96%</t>
+          <t>63.72%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$680,827,015</t>
+          <t>$309,375,406</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.74%</t>
+          <t>12.16%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.06%</t>
+          <t>-7.76%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63.72%</t>
+          <t>60.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$371,451,609</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.78%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-12.51%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>67.96%</t>
         </is>
       </c>
     </row>
@@ -2350,34 +2158,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2409,128 +2217,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$176,842,551</t>
+          <t>$330,696,182</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.84%</t>
+          <t>5.76%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.51%</t>
+          <t>-1.68%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>55.22%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$30,612,503</t>
+          <t>$176,842,551</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.05%</t>
+          <t>10.84%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-22.63%</t>
+          <t>-10.51%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.32%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$115,484,684</t>
+          <t>$30,612,503</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>10.05%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>-22.63%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>72.32%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$330,696,182</t>
+          <t>$115,484,684</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.68%</t>
+          <t>-6.72%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>55.22%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -2619,34 +2427,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2678,7 +2486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2710,7 +2518,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2742,7 +2550,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2806,7 +2614,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2838,7 +2646,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2870,7 +2678,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2902,7 +2710,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2934,64 +2742,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$216,851,121</t>
+          <t>$36,501,775</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.39%</t>
+          <t>-6.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68.89%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$36,501,775</t>
+          <t>$216,851,121</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.56%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-6.92%</t>
+          <t>-11.39%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.89%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/montana_overview.xlsx
+++ b/data/processed/state_overviews/montana_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>63.72%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>667</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$680,827,015</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.72%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.72%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>667</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$680,827,015</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.72%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$981,030</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.55%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.93%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$14,593,247</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>21.69%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.09%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$9,452,848</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-14.39%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-31.32%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,587,118</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-1.02%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,520,400</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>29.22%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>8.33%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>70.73%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$63,796,668</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>6.91%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-18.64%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>70.73%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$19,239,235</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>9.90%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.30%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$4,661,576</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-33.09%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$12,283</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2.44%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.34%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$7,253,857</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-1.19%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-91.48%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$17,289,903</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>12.15%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-1.68%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$250,673</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>18.45%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>17.30%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$4,944,691</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-32.78%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$34,381,964</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>16.22%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>44.44%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$39,561,443</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>13.87%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-4.59%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$20,508,151</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>26.24%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-36.00%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>90.91%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$15,890,218</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>4.28%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-45.40%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>90.91%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$1,528,358</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>18.62%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-36.06%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$41,411,337</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>25.76%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>10.58%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>68.97%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$80,734,990</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>4.94%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-15.16%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>68.97%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$111,499</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>-2.86%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-32.66%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$14,545,482</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>8.27%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-36.43%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$830,801</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>16.96%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.83%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$455,802</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>-7.88%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-18.35%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$44,149</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>-1.81%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-6.01%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$682,416</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1.73%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$100,403,064</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>8.28%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-8.36%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$7,378,198</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>23.06%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-27.24%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>52.38%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$8,571,173</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>11.12%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-8.81%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>52.38%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$3,181,916</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>81.94%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>45.20%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$2,294,750</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>-4.73%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-18.78%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$1,962,211</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>-3.79%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-84.63%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$2,145,271</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-31.32%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>76.47%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$13,789,091</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>16.61%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-20.21%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>76.47%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$8,752,930</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>-2.53%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-18.19%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$2,488,805</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>11.48%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-3.80%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$1,789,510</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>6.45%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-12.98%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$10,612,693</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>17.34%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-3.38%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$380,351</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>-4.06%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-6.42%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>70.83%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$12,232,760</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>6.90%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-28.32%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>70.83%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$992,459</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>13.71%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-30.28%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$2,569,372</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>31.63%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>6.39%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$1,684,688</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1.85%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-11.82%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$3,316,171</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>19.53%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-11.55%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>64.20%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$100,011,463</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>10.23%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-6.00%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>64.20%</t>
         </is>
       </c>
     </row>
@@ -1985,27 +1985,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2017,27 +2017,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2049,91 +2049,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.72%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>667</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$680,827,015</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.72%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>60.06%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>358</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$309,375,406</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.16%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-7.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>60.06%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>67.96%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>309</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$371,451,609</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-12.51%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>67.96%</t>
         </is>
       </c>
     </row>
@@ -2158,187 +2158,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.02%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>236</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$23,770,520</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.38%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-10.45%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.02%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$330,696,182</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>$176,842,551</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-1.68%</t>
+          <t>10.84%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>55.22%</t>
+          <t>-10.51%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>72.32%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$176,842,551</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.84%</t>
+          <t>$30,612,503</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.51%</t>
+          <t>10.05%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-22.63%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>64.29%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$30,612,503</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.05%</t>
+          <t>$115,484,684</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-22.63%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72.32%</t>
+          <t>-6.72%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>55.22%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$115,484,684</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>$330,696,182</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>5.76%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>-1.68%</t>
         </is>
       </c>
     </row>
@@ -2350,27 +2350,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>47.62%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$3,420,575</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>22.68%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>47.62%</t>
         </is>
       </c>
     </row>
@@ -2382,27 +2382,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>63.72%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>667</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$680,827,015</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>63.72%</t>
         </is>
       </c>
     </row>
@@ -2427,155 +2427,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>62.22%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$8,306,805</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.13%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.88%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>62.22%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>48.84%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$12,722,571</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>13.07%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.26%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>48.84%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$35,277,260</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>15.82%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.15%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>63.49%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$94,023,347</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.03%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-10.07%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>63.49%</t>
         </is>
       </c>
     </row>
@@ -2587,219 +2587,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>35.71%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$58,928,210</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.35%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.23%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>35.71%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>73.08%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>208</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$171,526,665</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.86%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.11%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>73.08%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,459,235</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>-12.47%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-64.22%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>55.38%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$38,802,621</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>15.40%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>55.38%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$6,427,405</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>4.95%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-8.03%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>68.89%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$36,501,775</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.56%</t>
+          <t>$216,851,121</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-6.92%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-11.39%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$216,851,121</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>$36,501,775</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-11.39%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.89%</t>
+          <t>-6.92%</t>
         </is>
       </c>
     </row>
@@ -2811,27 +2811,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>63.72%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>667</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$680,827,015</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>63.72%</t>
         </is>
       </c>
     </row>
